--- a/ASML.xlsx
+++ b/ASML.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3C10094-8ED6-904E-858E-9633BCA68DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5595CB-C9CE-429C-9590-B4EBC32D40D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36520" yWindow="-20300" windowWidth="28040" windowHeight="17440" xr2:uid="{0CB1B3B1-96D5-464B-8AAB-50F0DEF28373}"/>
+    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" activeTab="1" xr2:uid="{0CB1B3B1-96D5-464B-8AAB-50F0DEF28373}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,13 +127,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,14 +169,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -502,70 +520,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74009B50-704A-034F-8093-37F7EA0858AE}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="10.6640625" style="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K2" t="s">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K3" t="s">
+      <c r="L2" s="2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
         <v>393.5</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K4" t="s">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>330933.5</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K5" t="s">
+        <v>269154</v>
+      </c>
+    </row>
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
         <f>4813.6+205.3+1002.3</f>
         <v>6021.2000000000007</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K6" t="s">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="3">
         <v>4608.2</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K7" t="s">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>329520.5</v>
+        <v>267741</v>
       </c>
     </row>
   </sheetData>
@@ -577,298 +600,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6E5B56-48A6-214D-919A-AB73CF1B0447}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="7.58203125" style="4" customWidth="1"/>
+    <col min="11" max="14" width="7.08203125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>113</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>112</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>124</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>70</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>4500</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>2602</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>9186</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>3611</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <v>5567</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:14" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
         <v>6902</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="7">
         <v>6673</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="7">
         <v>7237</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="7">
         <v>5290</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="7">
         <v>6243</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
         <v>3358.3</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
         <v>3030.6</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
         <f>H6-H7</f>
         <v>3543.7</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <f>L6-L7</f>
         <v>3212.4</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <v>999.9</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <v>1100.5999999999999</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
         <v>281.10000000000002</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>277</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
         <f>H10+H9</f>
         <v>1281</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <f t="shared" ref="I11:L11" si="0">I10+I9</f>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <f t="shared" si="0"/>
         <v>1377.6</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
         <f>H8-H11</f>
         <v>2262.6999999999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <f t="shared" ref="I12:L12" si="1">I8-I11</f>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <f t="shared" si="1"/>
         <v>1834.8000000000002</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L13" s="2">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
         <v>-11.9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L14" s="4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="5">
         <f>L12+L13</f>
         <v>1822.9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L15" s="2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
         <v>291.60000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L16" s="4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="5">
         <f>L14-L15</f>
         <v>1531.3000000000002</v>
       </c>
